--- a/sharedfile/3-4.테이블명세서_발표회전까지_20211010.xlsx
+++ b/sharedfile/3-4.테이블명세서_발표회전까지_20211010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smhrd\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2F9566-B57F-485F-884F-2143FC8C4593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CD815C-53CD-4CF3-B65E-F562D096164A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11940" yWindow="255" windowWidth="16905" windowHeight="14145" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11490" yWindow="645" windowWidth="16905" windowHeight="14145" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블목록" sheetId="1" r:id="rId1"/>
@@ -397,10 +397,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SM_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>StudyMember</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -602,6 +598,10 @@
 	study_week CHAR(1) CONSTRAINT study_const1 check (study_week in ('월', '화', '수', '목', '금', '토', '일')),
 	study_time NUMBER
 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SM_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1314,6 +1314,33 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1366,33 +1393,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1946,72 +1946,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" thickBot="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="78"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" spans="1:10" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:10" ht="17.25" thickBot="1">
       <c r="D3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80" t="s">
+      <c r="F3" s="61"/>
+      <c r="G3" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="80"/>
-      <c r="I3" s="81" t="s">
+      <c r="H3" s="62"/>
+      <c r="I3" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="82"/>
+      <c r="J3" s="64"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="84" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="84"/>
-      <c r="I4" s="67" t="s">
+      <c r="H4" s="66"/>
+      <c r="I4" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="68"/>
+      <c r="J4" s="77"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="70"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="33" t="s">
@@ -2110,7 +2110,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>60</v>
@@ -2322,40 +2322,40 @@
       <c r="J17" s="29"/>
     </row>
     <row r="18" spans="1:10" ht="18" thickBot="1">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="73"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="82"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" thickBot="1">
       <c r="A19" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74" t="s">
+      <c r="C19" s="83"/>
+      <c r="D19" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="74"/>
+      <c r="E19" s="83"/>
       <c r="F19" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="74" t="s">
+      <c r="G19" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="75"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="84"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="37"/>
@@ -2394,236 +2394,230 @@
       <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:10" ht="18" thickBot="1">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="73"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="82"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="60"/>
+      <c r="A24" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="69"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="61"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="63"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="72"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="61"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="63"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="72"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="61"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="63"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="72"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="61"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="63"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="72"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="61"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="63"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="61"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="63"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="72"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="61"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="63"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="72"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="61"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="63"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="72"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="61"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="63"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="72"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="61"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="63"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="72"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="61"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="63"/>
+      <c r="A35" s="70"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="72"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="61"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="63"/>
+      <c r="A36" s="70"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="72"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="61"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="63"/>
+      <c r="A37" s="70"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="72"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="61"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="63"/>
+      <c r="A38" s="70"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="72"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="61"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="63"/>
+      <c r="A39" s="70"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="72"/>
     </row>
     <row r="40" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A40" s="64"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="66"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="75"/>
     </row>
     <row r="1048576" spans="5:5">
       <c r="E1048576" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:H4"/>
     <mergeCell ref="A24:J40"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="B5:J5"/>
@@ -2632,6 +2626,12 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2655,52 +2655,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" thickBot="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="78"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" spans="1:10" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:10" ht="17.25" thickBot="1">
       <c r="D3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80" t="s">
+      <c r="F3" s="61"/>
+      <c r="G3" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="80"/>
-      <c r="I3" s="81" t="s">
+      <c r="H3" s="62"/>
+      <c r="I3" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="82"/>
+      <c r="J3" s="64"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="84" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="84"/>
+      <c r="H4" s="66"/>
       <c r="I4" s="85" t="s">
         <v>61</v>
       </c>
@@ -2710,15 +2710,15 @@
       <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="70"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="33" t="s">
@@ -2757,7 +2757,7 @@
         <v>62</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="48" t="s">
         <v>59</v>
@@ -2919,40 +2919,40 @@
       <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10" ht="18" thickBot="1">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="73"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="82"/>
     </row>
     <row r="15" spans="1:10" ht="17.25" thickBot="1">
       <c r="A15" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74" t="s">
+      <c r="C15" s="83"/>
+      <c r="D15" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="74"/>
+      <c r="E15" s="83"/>
       <c r="F15" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="74" t="s">
+      <c r="G15" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="75"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="84"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="37"/>
@@ -2991,227 +2991,234 @@
       <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:10" ht="18" thickBot="1">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="73"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="82"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="60"/>
+      <c r="A20" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="69"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="61"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="63"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="72"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="61"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="63"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="72"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="61"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="63"/>
+      <c r="A23" s="70"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="72"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="61"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="63"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="72"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="61"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="63"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="72"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="61"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="63"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="72"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="61"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="63"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="72"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="61"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="63"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="72"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="61"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="63"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="61"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="63"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="72"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="61"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="63"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="72"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="61"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="63"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="72"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="61"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="63"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="72"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="61"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="63"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="72"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="61"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="63"/>
+      <c r="A35" s="70"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="72"/>
     </row>
     <row r="36" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A36" s="64"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="66"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A20:J36"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="A19:J19"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
@@ -3219,13 +3226,6 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A20:J36"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="A19:J19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3248,52 +3248,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" thickBot="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="78"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" spans="1:10" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:10" ht="17.25" thickBot="1">
       <c r="D3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80" t="s">
+      <c r="F3" s="61"/>
+      <c r="G3" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="80"/>
-      <c r="I3" s="81" t="s">
+      <c r="H3" s="62"/>
+      <c r="I3" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="82"/>
+      <c r="J3" s="64"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="84" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="84"/>
+      <c r="H4" s="66"/>
       <c r="I4" s="24"/>
       <c r="J4" s="25"/>
     </row>
@@ -3301,15 +3301,15 @@
       <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="70"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="33" t="s">
@@ -3376,7 +3376,7 @@
         <v>74</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" s="48" t="s">
         <v>60</v>
@@ -3403,10 +3403,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" s="48" t="s">
         <v>60</v>
@@ -3493,10 +3493,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="48" t="s">
         <v>59</v>
@@ -3521,16 +3521,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" s="48" t="s">
         <v>59</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E13" s="50" t="s">
         <v>19</v>
@@ -3551,10 +3551,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" s="48" t="s">
         <v>60</v>
@@ -3581,10 +3581,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="48" t="s">
         <v>60</v>
@@ -3611,10 +3611,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" s="48" t="s">
         <v>60</v>
@@ -3652,40 +3652,40 @@
       <c r="J17" s="29"/>
     </row>
     <row r="18" spans="1:10" ht="18" thickBot="1">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="73"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="82"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" thickBot="1">
       <c r="A19" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74" t="s">
+      <c r="C19" s="83"/>
+      <c r="D19" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="74"/>
+      <c r="E19" s="83"/>
       <c r="F19" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="74" t="s">
+      <c r="G19" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="75"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="84"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="30"/>
@@ -3724,22 +3724,22 @@
       <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:10" ht="18" thickBot="1">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="73"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="82"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="87" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" s="88"/>
       <c r="C24" s="88"/>
@@ -3945,6 +3945,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A24:J40"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="A23:J23"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="G4:H4"/>
@@ -3952,12 +3958,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A24:J40"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="A23:J23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3969,8 +3969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5D40B6-7DC7-48C3-A565-ADA3A241EA57}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:J40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3981,54 +3981,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" thickBot="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="78"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" spans="1:10" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:10" ht="17.25" thickBot="1">
       <c r="D3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80" t="s">
+      <c r="F3" s="61"/>
+      <c r="G3" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="80"/>
-      <c r="I3" s="81" t="s">
+      <c r="H3" s="62"/>
+      <c r="I3" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="82"/>
+      <c r="J3" s="64"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="84" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="84"/>
+      <c r="H4" s="66"/>
       <c r="I4" s="85" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J4" s="86"/>
     </row>
@@ -4036,15 +4036,15 @@
       <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="70"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="33" t="s">
@@ -4079,29 +4079,31 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="47"/>
+      <c r="B7" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="50">
+        <v>30</v>
+      </c>
       <c r="E7" s="50" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="47" t="s">
+      <c r="G7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="50" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="10"/>
@@ -4111,42 +4113,40 @@
         <v>128</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C8" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="50"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="50" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="50" t="s">
+      <c r="H8" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="47" t="s">
         <v>19</v>
       </c>
       <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="48" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="50">
-        <v>50</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="50"/>
       <c r="E9" s="50" t="s">
         <v>19</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>19</v>
       </c>
       <c r="G9" s="50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="50" t="s">
         <v>19</v>
@@ -4166,15 +4166,17 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="50"/>
+        <v>60</v>
+      </c>
+      <c r="D10" s="50">
+        <v>50</v>
+      </c>
       <c r="E10" s="50" t="s">
         <v>19</v>
       </c>
@@ -4194,10 +4196,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="48" t="s">
         <v>69</v>
@@ -4222,17 +4224,15 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="50">
-        <v>1000</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D12" s="50"/>
       <c r="E12" s="50" t="s">
         <v>19</v>
       </c>
@@ -4252,16 +4252,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="48" t="s">
         <v>60</v>
       </c>
       <c r="D13" s="50">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="E13" s="50" t="s">
         <v>19</v>
@@ -4276,22 +4276,22 @@
         <v>19</v>
       </c>
       <c r="I13" s="50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="48" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="50">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E14" s="50" t="s">
         <v>19</v>
@@ -4306,16 +4306,16 @@
         <v>19</v>
       </c>
       <c r="I14" s="50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="B15" s="51" t="s">
-        <v>93</v>
+      <c r="A15" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>92</v>
       </c>
       <c r="C15" s="48" t="s">
         <v>60</v>
@@ -4327,7 +4327,7 @@
         <v>19</v>
       </c>
       <c r="F15" s="50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" s="50" t="s">
         <v>19</v>
@@ -4365,40 +4365,737 @@
       <c r="J17" s="29"/>
     </row>
     <row r="18" spans="1:10" ht="18" thickBot="1">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="73"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="82"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" thickBot="1">
       <c r="A19" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74" t="s">
+      <c r="C19" s="83"/>
+      <c r="D19" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="74"/>
+      <c r="E19" s="83"/>
       <c r="F19" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="74" t="s">
+      <c r="G19" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="75"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="84"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="53"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="39"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="22"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
+    </row>
+    <row r="23" spans="1:10" ht="18" thickBot="1">
+      <c r="A23" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="82"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="69"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="70"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="72"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="70"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="72"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="70"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="72"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="70"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="72"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="70"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="70"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="72"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="70"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="72"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="70"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="72"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="70"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="72"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="70"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="72"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="70"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="72"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="70"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="72"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="70"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="72"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="70"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="72"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="70"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="72"/>
+    </row>
+    <row r="40" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A40" s="73"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A24:J40"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF784CC1-43A4-48AD-BC47-6EB209AA98AC}">
+  <dimension ref="A1:J40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24.75" thickBot="1">
+      <c r="A1" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="60"/>
+    </row>
+    <row r="2" spans="1:10" ht="17.25" thickBot="1"/>
+    <row r="3" spans="1:10" ht="17.25" thickBot="1">
+      <c r="D3" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="64"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="66"/>
+      <c r="I4" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="86"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="79"/>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A6" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="41"/>
+      <c r="E7" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="19">
+        <v>50</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="19">
+        <v>30</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="19">
+        <v>50</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="19">
+        <v>1</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="21"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="19">
+        <v>10</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="21"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="22"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="22"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="1:10" ht="18" thickBot="1">
+      <c r="A18" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="82"/>
+    </row>
+    <row r="19" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A19" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="83"/>
+      <c r="F19" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="84"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="37"/>
@@ -4437,227 +5134,234 @@
       <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:10" ht="18" thickBot="1">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="73"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="82"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="60"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="69"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="61"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="63"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="72"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="61"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="63"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="72"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="61"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="63"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="72"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="61"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="63"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="72"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="61"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="63"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="61"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="63"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="72"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="61"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="63"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="72"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="61"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="63"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="72"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="61"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="63"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="72"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="61"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="63"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="72"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="61"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="63"/>
+      <c r="A35" s="70"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="72"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="61"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="63"/>
+      <c r="A36" s="70"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="72"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="61"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="63"/>
+      <c r="A37" s="70"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="72"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="61"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="63"/>
+      <c r="A38" s="70"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="72"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="61"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="63"/>
+      <c r="A39" s="70"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="72"/>
     </row>
     <row r="40" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A40" s="64"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="66"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A24:J40"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="A23:J23"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
@@ -4665,710 +5369,6 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A24:J40"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="A23:J23"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF784CC1-43A4-48AD-BC47-6EB209AA98AC}">
-  <dimension ref="A1:J40"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="24.75" thickBot="1">
-      <c r="A1" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="78"/>
-    </row>
-    <row r="2" spans="1:10" ht="17.25" thickBot="1"/>
-    <row r="3" spans="1:10" ht="17.25" thickBot="1">
-      <c r="D3" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="80"/>
-      <c r="I3" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="82"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="84"/>
-      <c r="I4" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="86"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="70"/>
-    </row>
-    <row r="6" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A6" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="19">
-        <v>50</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="21"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="21"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="21"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="19">
-        <v>30</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="21"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="19">
-        <v>50</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="21"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="19">
-        <v>1</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="21"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="19">
-        <v>10</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="21"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="22"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="21"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="22"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="21"/>
-    </row>
-    <row r="17" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="29"/>
-    </row>
-    <row r="18" spans="1:10" ht="18" thickBot="1">
-      <c r="A18" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="73"/>
-    </row>
-    <row r="19" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A19" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="74"/>
-      <c r="F19" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="75"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="22"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="21"/>
-    </row>
-    <row r="22" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="29"/>
-    </row>
-    <row r="23" spans="1:10" ht="18" thickBot="1">
-      <c r="A23" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="73"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="60"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="61"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="63"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="61"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="63"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="61"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="63"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="61"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="63"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="61"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="63"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="61"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="63"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="61"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="63"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="61"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="63"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="61"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="63"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="61"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="63"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="61"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="63"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="61"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="63"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="61"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="63"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="61"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="63"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="61"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="63"/>
-    </row>
-    <row r="40" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A40" s="64"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="66"/>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A24:J40"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="A23:J23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sharedfile/3-4.테이블명세서_발표회전까지_20211010.xlsx
+++ b/sharedfile/3-4.테이블명세서_발표회전까지_20211010.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smhrd\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CD815C-53CD-4CF3-B65E-F562D096164A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECDBAEE-01DD-4F07-B073-6B5243383358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11490" yWindow="645" windowWidth="16905" windowHeight="14145" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,10 +369,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>std_id_sm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SM_title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -602,6 +598,10 @@
   </si>
   <si>
     <t>SM_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>study_no_sm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2110,7 +2110,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>60</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B24" s="68"/>
       <c r="C24" s="68"/>
@@ -2757,7 +2757,7 @@
         <v>62</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="48" t="s">
         <v>59</v>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20" s="68"/>
       <c r="C20" s="68"/>
@@ -3376,7 +3376,7 @@
         <v>74</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="48" t="s">
         <v>60</v>
@@ -3403,10 +3403,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="48" t="s">
         <v>60</v>
@@ -3493,10 +3493,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C12" s="48" t="s">
         <v>59</v>
@@ -3521,16 +3521,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13" s="48" t="s">
         <v>59</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E13" s="50" t="s">
         <v>19</v>
@@ -3551,10 +3551,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C14" s="48" t="s">
         <v>60</v>
@@ -3581,10 +3581,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C15" s="48" t="s">
         <v>60</v>
@@ -3611,10 +3611,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" s="48" t="s">
         <v>60</v>
@@ -3739,7 +3739,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B24" s="88"/>
       <c r="C24" s="88"/>
@@ -3970,7 +3970,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="H4" s="66"/>
       <c r="I4" s="85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J4" s="86"/>
     </row>
@@ -4080,10 +4080,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="48" t="s">
         <v>60</v>
@@ -4110,10 +4110,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="C8" s="51" t="s">
         <v>59</v>
@@ -4138,10 +4138,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="51" t="s">
         <v>59</v>
@@ -4169,7 +4169,7 @@
         <v>80</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="48" t="s">
         <v>60</v>
@@ -4199,7 +4199,7 @@
         <v>81</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="48" t="s">
         <v>69</v>
@@ -4227,7 +4227,7 @@
         <v>82</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="48" t="s">
         <v>69</v>
@@ -4255,7 +4255,7 @@
         <v>83</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="48" t="s">
         <v>60</v>
@@ -4285,7 +4285,7 @@
         <v>84</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="48" t="s">
         <v>60</v>
@@ -4315,7 +4315,7 @@
         <v>85</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="48" t="s">
         <v>60</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B24" s="68"/>
       <c r="C24" s="68"/>
@@ -4675,6 +4675,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4796,7 +4797,7 @@
         <v>73</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>59</v>
@@ -4821,10 +4822,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>60</v>
@@ -4854,7 +4855,7 @@
         <v>81</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>69</v>
@@ -4882,7 +4883,7 @@
         <v>82</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>69</v>
@@ -4907,10 +4908,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>60</v>
@@ -4937,10 +4938,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>60</v>
@@ -4967,10 +4968,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>17</v>
@@ -4997,10 +4998,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>70</v>
@@ -5149,7 +5150,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B24" s="68"/>
       <c r="C24" s="68"/>

--- a/sharedfile/3-4.테이블명세서_발표회전까지_20211010.xlsx
+++ b/sharedfile/3-4.테이블명세서_발표회전까지_20211010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smhrd\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECDBAEE-01DD-4F07-B073-6B5243383358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774698F2-17C4-445A-BA7B-0712BA6312C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11490" yWindow="645" windowWidth="16905" windowHeight="14145" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11490" yWindow="645" windowWidth="16905" windowHeight="14145" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블목록" sheetId="1" r:id="rId1"/>
@@ -1314,33 +1314,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1393,6 +1366,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1934,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B9D277-A42C-4E3F-95BF-148BFA46CD12}">
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1946,72 +1946,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" thickBot="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="60"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
     </row>
     <row r="2" spans="1:10" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:10" ht="17.25" thickBot="1">
       <c r="D3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62" t="s">
+      <c r="F3" s="79"/>
+      <c r="G3" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="63" t="s">
+      <c r="H3" s="80"/>
+      <c r="I3" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="64"/>
+      <c r="J3" s="82"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="66"/>
-      <c r="I4" s="76" t="s">
+      <c r="H4" s="84"/>
+      <c r="I4" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="77"/>
+      <c r="J4" s="68"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="79"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="70"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="33" t="s">
@@ -2176,7 +2176,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="19">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E11" s="43" t="s">
         <v>19</v>
@@ -2206,7 +2206,7 @@
         <v>60</v>
       </c>
       <c r="D12" s="19">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E12" s="43" t="s">
         <v>19</v>
@@ -2236,7 +2236,7 @@
         <v>60</v>
       </c>
       <c r="D13" s="19">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E13" s="43" t="s">
         <v>19</v>
@@ -2322,40 +2322,40 @@
       <c r="J17" s="29"/>
     </row>
     <row r="18" spans="1:10" ht="18" thickBot="1">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="82"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="73"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" thickBot="1">
       <c r="A19" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83" t="s">
+      <c r="C19" s="74"/>
+      <c r="D19" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="83"/>
+      <c r="E19" s="74"/>
       <c r="F19" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="83" t="s">
+      <c r="G19" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="84"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="75"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="37"/>
@@ -2394,230 +2394,236 @@
       <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:10" ht="18" thickBot="1">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="82"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="73"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="69"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="60"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="70"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="72"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="63"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="70"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="72"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="63"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="70"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="72"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="63"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="70"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="72"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="63"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="70"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="63"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="70"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="72"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="63"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="70"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="72"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="63"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="70"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="72"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="63"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="70"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="72"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="63"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="70"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="72"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="63"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="70"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="72"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="63"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="70"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="72"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="63"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="70"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="72"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="63"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="70"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="72"/>
+      <c r="A38" s="61"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="63"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="70"/>
-      <c r="B39" s="71"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="72"/>
+      <c r="A39" s="61"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="63"/>
     </row>
     <row r="40" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A40" s="73"/>
-      <c r="B40" s="74"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
-      <c r="J40" s="75"/>
+      <c r="A40" s="64"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="66"/>
     </row>
     <row r="1048576" spans="5:5">
       <c r="E1048576" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="A24:J40"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="B5:J5"/>
@@ -2626,12 +2632,6 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2655,52 +2655,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" thickBot="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="60"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
     </row>
     <row r="2" spans="1:10" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:10" ht="17.25" thickBot="1">
       <c r="D3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62" t="s">
+      <c r="F3" s="79"/>
+      <c r="G3" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="63" t="s">
+      <c r="H3" s="80"/>
+      <c r="I3" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="64"/>
+      <c r="J3" s="82"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="66"/>
+      <c r="H4" s="84"/>
       <c r="I4" s="85" t="s">
         <v>61</v>
       </c>
@@ -2710,15 +2710,15 @@
       <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="79"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="70"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="33" t="s">
@@ -2919,40 +2919,40 @@
       <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10" ht="18" thickBot="1">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="82"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="73"/>
     </row>
     <row r="15" spans="1:10" ht="17.25" thickBot="1">
       <c r="A15" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83" t="s">
+      <c r="C15" s="74"/>
+      <c r="D15" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="83"/>
+      <c r="E15" s="74"/>
       <c r="F15" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="83" t="s">
+      <c r="G15" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="84"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="75"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="37"/>
@@ -2991,227 +2991,234 @@
       <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:10" ht="18" thickBot="1">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="82"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="73"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="69"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="60"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="70"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="72"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="63"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="70"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="72"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="63"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="70"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="72"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="63"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="70"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="72"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="63"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="70"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="72"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="63"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="70"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="72"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="63"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="70"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="72"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="63"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="70"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="72"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="63"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="70"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="63"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="70"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="72"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="63"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="70"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="72"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="63"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="70"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="72"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="63"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="70"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="72"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="63"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="70"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="72"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="63"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="70"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="72"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="63"/>
     </row>
     <row r="36" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A36" s="73"/>
-      <c r="B36" s="74"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="74"/>
-      <c r="J36" s="75"/>
+      <c r="A36" s="64"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="A20:J36"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="A14:J14"/>
@@ -3219,13 +3226,6 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3248,52 +3248,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" thickBot="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="60"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
     </row>
     <row r="2" spans="1:10" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:10" ht="17.25" thickBot="1">
       <c r="D3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62" t="s">
+      <c r="F3" s="79"/>
+      <c r="G3" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="63" t="s">
+      <c r="H3" s="80"/>
+      <c r="I3" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="64"/>
+      <c r="J3" s="82"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="66"/>
+      <c r="H4" s="84"/>
       <c r="I4" s="24"/>
       <c r="J4" s="25"/>
     </row>
@@ -3301,15 +3301,15 @@
       <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="79"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="70"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="33" t="s">
@@ -3652,40 +3652,40 @@
       <c r="J17" s="29"/>
     </row>
     <row r="18" spans="1:10" ht="18" thickBot="1">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="82"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="73"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" thickBot="1">
       <c r="A19" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83" t="s">
+      <c r="C19" s="74"/>
+      <c r="D19" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="83"/>
+      <c r="E19" s="74"/>
       <c r="F19" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="83" t="s">
+      <c r="G19" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="84"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="75"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="30"/>
@@ -3724,18 +3724,18 @@
       <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:10" ht="18" thickBot="1">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="82"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="73"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="87" t="s">
@@ -3945,12 +3945,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A24:J40"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="A23:J23"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="G4:H4"/>
@@ -3958,6 +3952,12 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A24:J40"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="A23:J23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3969,7 +3969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5D40B6-7DC7-48C3-A565-ADA3A241EA57}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -3981,52 +3981,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" thickBot="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="60"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
     </row>
     <row r="2" spans="1:10" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:10" ht="17.25" thickBot="1">
       <c r="D3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62" t="s">
+      <c r="F3" s="79"/>
+      <c r="G3" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="63" t="s">
+      <c r="H3" s="80"/>
+      <c r="I3" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="64"/>
+      <c r="J3" s="82"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="66"/>
+      <c r="H4" s="84"/>
       <c r="I4" s="85" t="s">
         <v>92</v>
       </c>
@@ -4036,15 +4036,15 @@
       <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="79"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="70"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="33" t="s">
@@ -4365,40 +4365,40 @@
       <c r="J17" s="29"/>
     </row>
     <row r="18" spans="1:10" ht="18" thickBot="1">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="82"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="73"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" thickBot="1">
       <c r="A19" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83" t="s">
+      <c r="C19" s="74"/>
+      <c r="D19" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="83"/>
+      <c r="E19" s="74"/>
       <c r="F19" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="83" t="s">
+      <c r="G19" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="84"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="75"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="53"/>
@@ -4437,227 +4437,234 @@
       <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:10" ht="18" thickBot="1">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="82"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="73"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="69"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="60"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="70"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="72"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="63"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="70"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="72"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="63"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="70"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="72"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="63"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="70"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="72"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="63"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="70"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="63"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="70"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="72"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="63"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="70"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="72"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="63"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="70"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="72"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="63"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="70"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="72"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="63"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="70"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="72"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="63"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="70"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="72"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="63"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="70"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="72"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="63"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="70"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="72"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="63"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="70"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="72"/>
+      <c r="A38" s="61"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="63"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="70"/>
-      <c r="B39" s="71"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="72"/>
+      <c r="A39" s="61"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="63"/>
     </row>
     <row r="40" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A40" s="73"/>
-      <c r="B40" s="74"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
-      <c r="J40" s="75"/>
+      <c r="A40" s="64"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="A24:J40"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="A18:J18"/>
@@ -4665,13 +4672,6 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4695,52 +4695,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" thickBot="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="60"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
     </row>
     <row r="2" spans="1:10" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:10" ht="17.25" thickBot="1">
       <c r="D3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62" t="s">
+      <c r="F3" s="79"/>
+      <c r="G3" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="63" t="s">
+      <c r="H3" s="80"/>
+      <c r="I3" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="64"/>
+      <c r="J3" s="82"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="66"/>
+      <c r="H4" s="84"/>
       <c r="I4" s="85" t="s">
         <v>40</v>
       </c>
@@ -4750,15 +4750,15 @@
       <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="79"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="70"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="33" t="s">
@@ -5063,40 +5063,40 @@
       <c r="J17" s="29"/>
     </row>
     <row r="18" spans="1:10" ht="18" thickBot="1">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="82"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="73"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" thickBot="1">
       <c r="A19" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83" t="s">
+      <c r="C19" s="74"/>
+      <c r="D19" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="83"/>
+      <c r="E19" s="74"/>
       <c r="F19" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="83" t="s">
+      <c r="G19" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="84"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="75"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="37"/>
@@ -5135,227 +5135,234 @@
       <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:10" ht="18" thickBot="1">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="82"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="73"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="69"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="60"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="70"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="72"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="63"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="70"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="72"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="63"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="70"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="72"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="63"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="70"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="72"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="63"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="70"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="63"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="70"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="72"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="63"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="70"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="72"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="63"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="70"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="72"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="63"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="70"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="72"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="63"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="70"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="72"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="63"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="70"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="72"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="63"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="70"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="72"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="63"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="70"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="72"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="63"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="70"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="72"/>
+      <c r="A38" s="61"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="63"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="70"/>
-      <c r="B39" s="71"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="72"/>
+      <c r="A39" s="61"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="63"/>
     </row>
     <row r="40" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A40" s="73"/>
-      <c r="B40" s="74"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
-      <c r="J40" s="75"/>
+      <c r="A40" s="64"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="A24:J40"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="A18:J18"/>
@@ -5363,13 +5370,6 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
